--- a/data/trans_bre/IP19C08-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C08-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,17 +620,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>18,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>13,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -640,22 +640,22 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>300,3%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,36%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>101,91%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 5,75</t>
+          <t>-3,68; 39,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 3,77</t>
+          <t>0,0; 23,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 5,08</t>
+          <t>0,0; 37,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 3,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-53,43; 198,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-75,51; 260,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 334,44</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,14%</t>
+          <t>-1,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-24,9%</t>
+          <t>101,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-76,14%</t>
+          <t>0,09%</t>
         </is>
       </c>
     </row>
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,77</t>
+          <t>-3,75; 5,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 5,65</t>
+          <t>-4,17; 3,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 2,93</t>
+          <t>-1,29; 5,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 0,17</t>
+          <t>-3,86; 3,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-53,43; 198,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-70,78; 225,78</t>
+          <t>-75,51; 260,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 240,83</t>
+          <t>-100,0; 334,44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,2</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,73</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>300,3%</t>
+          <t>22,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>200,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>52,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,33%</t>
         </is>
       </c>
     </row>
@@ -968,27 +968,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 39,26</t>
+          <t>-5,04; 7,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,0</t>
+          <t>-0,64; 9,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,88</t>
+          <t>-3,1; 6,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,75; 0,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,86; 336,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>22,66%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>200,06%</t>
+          <t>-4,14%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>52,88%</t>
+          <t>-24,9%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-79,33%</t>
+          <t>-76,14%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 7,08</t>
+          <t>-2,85; 4,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 9,02</t>
+          <t>-5,34; 5,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 6,0</t>
+          <t>-2,7; 2,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 0,61</t>
+          <t>-7,34; 0,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-71,86; 336,86</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-70,78; 225,78</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 240,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C08-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C08-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 39,26</t>
+          <t>-3,43; 42,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,0</t>
+          <t>0,0; 32,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,88</t>
+          <t>0,0; 38,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 2,48</t>
+          <t>-10,39; 3,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 3,85</t>
+          <t>-7,75; 4,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 7,01</t>
+          <t>-8,51; 6,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 10,92</t>
+          <t>0,35; 10,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 113,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 324,63</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-74,92; 207,51</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-73,0; 253,98</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-66,43; —</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 5,75</t>
+          <t>-4,31; 5,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 3,77</t>
+          <t>-3,81; 3,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 5,08</t>
+          <t>-1,31; 5,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 3,86</t>
+          <t>-4,28; 3,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-53,43; 198,59</t>
+          <t>-57,3; 206,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-75,51; 260,87</t>
+          <t>-74,2; 320,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,36; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 334,44</t>
+          <t>-100,0; 296,78</t>
         </is>
       </c>
     </row>
@@ -968,27 +968,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 7,08</t>
+          <t>-4,37; 7,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 9,02</t>
+          <t>-0,66; 8,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 6,0</t>
+          <t>-3,32; 5,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 0,61</t>
+          <t>-17,25; 0,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-71,86; 336,86</t>
+          <t>-66,47; 351,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,28; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,77</t>
+          <t>-2,81; 4,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 5,65</t>
+          <t>-5,81; 5,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 2,93</t>
+          <t>-2,7; 3,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 0,17</t>
+          <t>-7,03; 0,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-70,78; 225,78</t>
+          <t>-73,12; 199,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 240,83</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,63</t>
+          <t>-1,76; 3,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,87</t>
+          <t>-1,79; 2,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 3,49</t>
+          <t>-1,09; 3,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 0,9</t>
+          <t>-4,28; 0,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,65; 112,01</t>
+          <t>-31,27; 99,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,37; 104,03</t>
+          <t>-37,51; 107,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-29,56; 224,81</t>
+          <t>-32,0; 180,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-77,78; 50,92</t>
+          <t>-75,45; 48,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C08-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C08-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 42,49</t>
+          <t>-2,7; 40,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,53</t>
+          <t>0,0; 28,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,48</t>
+          <t>0,0; 38,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 3,05</t>
+          <t>-10,06; 2,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 4,56</t>
+          <t>-8,58; 3,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 6,98</t>
+          <t>-8,48; 7,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 10,53</t>
+          <t>0,22; 10,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 112,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 324,63</t>
+          <t>-100,0; 318,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-74,92; 207,51</t>
+          <t>-72,43; 259,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,06; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 5,92</t>
+          <t>-3,75; 6,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 3,83</t>
+          <t>-4,01; 3,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 5,49</t>
+          <t>-1,46; 5,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 3,38</t>
+          <t>-4,07; 3,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-57,3; 206,38</t>
+          <t>-49,17; 196,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-74,2; 320,28</t>
+          <t>-77,44; 233,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-71,36; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 296,78</t>
+          <t>-100,0; 260,91</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,27 +968,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 7,31</t>
+          <t>-4,57; 7,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 8,24</t>
+          <t>-0,73; 8,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 5,7</t>
+          <t>-3,43; 6,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 0,35</t>
+          <t>-16,47; 0,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,47; 351,86</t>
+          <t>-67,04; 367,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-82,28; —</t>
+          <t>-77,75; 899,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,32 +1068,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 4,4</t>
+          <t>-2,85; 4,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 5,07</t>
+          <t>-5,56; 5,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 3,03</t>
+          <t>-2,69; 2,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 0,19</t>
+          <t>-7,43; 0,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-73,12; 199,08</t>
+          <t>-74,11; 209,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 379,77</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,63</t>
+          <t>-1,66; 3,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 2,96</t>
+          <t>-1,82; 2,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 3,41</t>
+          <t>-0,97; 3,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 0,83</t>
+          <t>-4,48; 0,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,27; 99,03</t>
+          <t>-27,37; 106,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,51; 107,76</t>
+          <t>-38,76; 107,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-32,0; 180,0</t>
+          <t>-29,85; 185,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-75,45; 48,2</t>
+          <t>-76,71; 46,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C08-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C08-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que en su última visita al dentista fue por selladores, aplicación de fluor</t>
+          <t>Menores que en su última visita al dentista fue por selladores, aplicación de flúor</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,2</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,73</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>300,3%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-17,57%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>44,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>330,65%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 40,73</t>
+          <t>-5,23; 9,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,16</t>
+          <t>-6,32; 4,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,44</t>
+          <t>-4,41; 10,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 9,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,48; 295,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,12; 311,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,39; 498,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,91; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-49,93%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-37,49%</t>
+          <t>-1,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-4,71%</t>
+          <t>101,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>296,88%</t>
+          <t>-1,93%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 2,88</t>
+          <t>-3,75; 5,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 3,63</t>
+          <t>-4,17; 3,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 7,89</t>
+          <t>-1,29; 5,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 10,32</t>
+          <t>-3,77; 3,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 112,57</t>
+          <t>-53,43; 198,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 318,03</t>
+          <t>-75,51; 260,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-72,43; 259,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-53,06; —</t>
+          <t>-100,0; 315,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>22,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,36%</t>
+          <t>200,06%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>101,91%</t>
+          <t>52,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>-78,01%</t>
         </is>
       </c>
     </row>
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 6,26</t>
+          <t>-5,04; 7,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 3,85</t>
+          <t>-0,64; 9,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 5,58</t>
+          <t>-3,1; 6,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 3,63</t>
+          <t>-16,97; 0,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-49,17; 196,58</t>
+          <t>-71,86; 336,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-77,44; 233,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 260,91</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,66%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>200,06%</t>
+          <t>-4,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>52,88%</t>
+          <t>-24,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-79,33%</t>
+          <t>-78,6%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 7,61</t>
+          <t>-2,85; 4,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 8,77</t>
+          <t>-5,34; 5,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 6,06</t>
+          <t>-2,7; 2,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 0,4</t>
+          <t>-7,61; -0,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-67,04; 367,16</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
+          <t>-70,78; 225,78</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-77,75; 899,48</t>
-        </is>
-      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 223,49</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,14%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-24,9%</t>
+          <t>44,21%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-76,14%</t>
+          <t>-34,5%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,55</t>
+          <t>-1,57; 3,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 5,06</t>
+          <t>-2,2; 2,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 2,99</t>
+          <t>-0,98; 3,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 0,28</t>
+          <t>-4,59; 0,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,65; 112,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-74,11; 209,82</t>
+          <t>-43,37; 104,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,56; 224,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 379,77</t>
+          <t>-78,35; 48,89</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,17</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-1,17</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>18,19%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>11,81%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>44,21%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-34,6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,66; 3,92</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-1,82; 2,85</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,97; 3,22</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-4,48; 0,87</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-27,37; 106,34</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-38,76; 107,98</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-29,85; 185,81</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-76,71; 46,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
